--- a/ENS_215/Data/Class_survey_2022.xlsx
+++ b/ENS_215/Data/Class_survey_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Major" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Topic</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t>ENS</t>
-  </si>
-  <si>
     <t>GEO</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Undeclared</t>
-  </si>
-  <si>
     <t>Machine Learning</t>
   </si>
   <si>
@@ -238,6 +232,15 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>ES</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,34 +588,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -624,9 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -647,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,15 +672,15 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +702,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,12 +744,12 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -763,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,15 +775,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -790,386 +791,242 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>61</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>64</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>65</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1046,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
